--- a/Outputs/0. Current Case/Output_0_40.xlsx
+++ b/Outputs/0. Current Case/Output_0_40.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailaub-my.sharepoint.com/personal/mo10_aub_edu_lb/Documents/3-Research/Elsa/Model 1/Github/Model-1/model/Output_Budget/0. Current Case/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailaub-my.sharepoint.com/personal/mo10_aub_edu_lb/Documents/3-Research/Elsa/Model 1/Github/microgrid_MP/Outputs/0. Current Case/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="11_8EE53270D62EC23918CDE0E8BC4A50FB64E9FEEB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{11290BC5-0DAD-47B7-BB72-693130BC468D}"/>
+  <xr:revisionPtr revIDLastSave="31" documentId="11_8EE53270D62EC23918CDE0E8BC4A50FB64E9FEEB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F4D34E33-D0CC-4E2A-B1CC-072BADCA7A20}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1860" yWindow="1860" windowWidth="22020" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="68">
   <si>
     <t>Interest Rate</t>
   </si>
@@ -254,9 +254,6 @@
   <si>
     <t>surplus</t>
   </si>
-  <si>
-    <t>CF</t>
-  </si>
 </sst>
 </file>
 
@@ -320,7 +317,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -628,21 +625,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.7265625" customWidth="1"/>
+    <col min="1" max="1" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -650,7 +647,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -658,7 +655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -666,7 +663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -674,7 +671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -682,15 +679,22 @@
         <v>2275865.281941582</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B7">
         <v>13476767.256909089</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C7">
+        <v>22911973.770491801</v>
+      </c>
+      <c r="D7">
+        <f>B7/C7</f>
+        <v>0.58819756830665282</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -705,7 +709,7 @@
         <v>-2.4907475508757104E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -713,7 +717,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -721,7 +725,7 @@
         <v>6960612.8616873352</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -740,9 +744,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -816,7 +820,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>22</v>
       </c>
@@ -893,7 +897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>23</v>
       </c>
@@ -970,7 +974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>24</v>
       </c>
@@ -1047,7 +1051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>25</v>
       </c>
@@ -1124,7 +1128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>26</v>
       </c>
@@ -1201,7 +1205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>27</v>
       </c>
@@ -1278,7 +1282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>28</v>
       </c>
@@ -1355,7 +1359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>29</v>
       </c>
@@ -1432,7 +1436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>30</v>
       </c>
@@ -1509,7 +1513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>31</v>
       </c>
@@ -1586,7 +1590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>32</v>
       </c>
@@ -1663,7 +1667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>33</v>
       </c>
@@ -1740,7 +1744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>34</v>
       </c>
@@ -1817,7 +1821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>35</v>
       </c>
@@ -1894,7 +1898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>36</v>
       </c>
@@ -1971,7 +1975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>37</v>
       </c>
@@ -2048,7 +2052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>38</v>
       </c>
@@ -2125,7 +2129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>39</v>
       </c>
@@ -2202,7 +2206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>40</v>
       </c>
@@ -2279,7 +2283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>41</v>
       </c>
@@ -2356,7 +2360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>42</v>
       </c>
@@ -2433,7 +2437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>43</v>
       </c>
@@ -2510,7 +2514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>44</v>
       </c>
@@ -2587,7 +2591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>45</v>
       </c>
@@ -2664,7 +2668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>46</v>
       </c>
@@ -2741,7 +2745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>47</v>
       </c>
@@ -2818,7 +2822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>48</v>
       </c>
@@ -2895,7 +2899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>49</v>
       </c>
@@ -2972,7 +2976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>50</v>
       </c>
@@ -3049,7 +3053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>51</v>
       </c>
@@ -3126,7 +3130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>52</v>
       </c>
@@ -3203,7 +3207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>53</v>
       </c>
@@ -3280,7 +3284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>54</v>
       </c>
@@ -3357,7 +3361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>55</v>
       </c>
@@ -3434,7 +3438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>56</v>
       </c>
@@ -3511,7 +3515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>57</v>
       </c>
@@ -3588,7 +3592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>58</v>
       </c>
@@ -3665,7 +3669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>59</v>
       </c>
@@ -3742,7 +3746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>60</v>
       </c>
@@ -3819,7 +3823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>61</v>
       </c>
@@ -3896,7 +3900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>62</v>
       </c>
@@ -3973,7 +3977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>63</v>
       </c>
@@ -4050,7 +4054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>64</v>
       </c>
@@ -4127,7 +4131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>65</v>
       </c>
@@ -4204,7 +4208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>66</v>
       </c>
@@ -4292,9 +4296,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -4368,7 +4372,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>22</v>
       </c>
@@ -4445,7 +4449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>23</v>
       </c>
@@ -4522,7 +4526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>24</v>
       </c>
@@ -4599,7 +4603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>25</v>
       </c>
@@ -4676,7 +4680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>26</v>
       </c>
@@ -4753,7 +4757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>27</v>
       </c>
@@ -4830,7 +4834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>28</v>
       </c>
@@ -4907,7 +4911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>29</v>
       </c>
@@ -4984,7 +4988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>30</v>
       </c>
@@ -5061,7 +5065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>31</v>
       </c>
@@ -5138,7 +5142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>32</v>
       </c>
@@ -5215,7 +5219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>33</v>
       </c>
@@ -5292,7 +5296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>34</v>
       </c>
@@ -5369,7 +5373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>35</v>
       </c>
@@ -5446,7 +5450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>36</v>
       </c>
@@ -5523,7 +5527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>37</v>
       </c>
@@ -5600,7 +5604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>38</v>
       </c>
@@ -5677,7 +5681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>39</v>
       </c>
@@ -5754,7 +5758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>40</v>
       </c>
@@ -5831,7 +5835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>41</v>
       </c>
@@ -5908,7 +5912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>42</v>
       </c>
@@ -5985,7 +5989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>43</v>
       </c>
@@ -6062,7 +6066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>44</v>
       </c>
@@ -6139,7 +6143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>45</v>
       </c>
@@ -6216,7 +6220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>46</v>
       </c>
@@ -6293,7 +6297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>47</v>
       </c>
@@ -6370,7 +6374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>48</v>
       </c>
@@ -6447,7 +6451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>49</v>
       </c>
@@ -6524,7 +6528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>50</v>
       </c>
@@ -6601,7 +6605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>51</v>
       </c>
@@ -6678,7 +6682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>52</v>
       </c>
@@ -6755,7 +6759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>53</v>
       </c>
@@ -6832,7 +6836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>54</v>
       </c>
@@ -6909,7 +6913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>55</v>
       </c>
@@ -6986,7 +6990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>56</v>
       </c>
@@ -7063,7 +7067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>57</v>
       </c>
@@ -7140,7 +7144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>58</v>
       </c>
@@ -7217,7 +7221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>59</v>
       </c>
@@ -7294,7 +7298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>60</v>
       </c>
@@ -7371,7 +7375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>61</v>
       </c>
@@ -7448,7 +7452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>62</v>
       </c>
@@ -7525,7 +7529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>63</v>
       </c>
@@ -7602,7 +7606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>64</v>
       </c>
@@ -7679,7 +7683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>65</v>
       </c>
@@ -7756,7 +7760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>66</v>
       </c>
@@ -7844,9 +7848,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -7920,7 +7924,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>22</v>
       </c>
@@ -7997,7 +8001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>23</v>
       </c>
@@ -8074,7 +8078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>24</v>
       </c>
@@ -8151,7 +8155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>25</v>
       </c>
@@ -8228,7 +8232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>26</v>
       </c>
@@ -8305,7 +8309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>27</v>
       </c>
@@ -8382,7 +8386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>28</v>
       </c>
@@ -8459,7 +8463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>29</v>
       </c>
@@ -8536,7 +8540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>30</v>
       </c>
@@ -8613,7 +8617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>31</v>
       </c>
@@ -8690,7 +8694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>32</v>
       </c>
@@ -8767,7 +8771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>33</v>
       </c>
@@ -8844,7 +8848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>34</v>
       </c>
@@ -8921,7 +8925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>35</v>
       </c>
@@ -8998,7 +9002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>36</v>
       </c>
@@ -9075,7 +9079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>37</v>
       </c>
@@ -9152,7 +9156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>38</v>
       </c>
@@ -9229,7 +9233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>39</v>
       </c>
@@ -9306,7 +9310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>40</v>
       </c>
@@ -9383,7 +9387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>41</v>
       </c>
@@ -9460,7 +9464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>42</v>
       </c>
@@ -9537,7 +9541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>43</v>
       </c>
@@ -9614,7 +9618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>44</v>
       </c>
@@ -9691,7 +9695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>45</v>
       </c>
@@ -9768,7 +9772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>46</v>
       </c>
@@ -9845,7 +9849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>47</v>
       </c>
@@ -9922,7 +9926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>48</v>
       </c>
@@ -9999,7 +10003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>49</v>
       </c>
@@ -10076,7 +10080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>50</v>
       </c>
@@ -10153,7 +10157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>51</v>
       </c>
@@ -10230,7 +10234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>52</v>
       </c>
@@ -10307,7 +10311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>53</v>
       </c>
@@ -10384,7 +10388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>54</v>
       </c>
@@ -10461,7 +10465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>55</v>
       </c>
@@ -10538,7 +10542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>56</v>
       </c>
@@ -10615,7 +10619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>57</v>
       </c>
@@ -10692,7 +10696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>58</v>
       </c>
@@ -10769,7 +10773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>59</v>
       </c>
@@ -10846,7 +10850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>60</v>
       </c>
@@ -10923,7 +10927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>61</v>
       </c>
@@ -11000,7 +11004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>62</v>
       </c>
@@ -11077,7 +11081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>63</v>
       </c>
@@ -11154,7 +11158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>64</v>
       </c>
@@ -11231,7 +11235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>65</v>
       </c>
@@ -11308,7 +11312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>66</v>
       </c>
@@ -11398,12 +11402,12 @@
       <selection activeCell="Z47" sqref="Z47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="26" max="26" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -11477,7 +11481,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>22</v>
       </c>
@@ -11558,7 +11562,7 @@
         <v>-1386842.4148154764</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>23</v>
       </c>
@@ -11639,7 +11643,7 @@
         <v>-410345.50791745115</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>24</v>
       </c>
@@ -11720,7 +11724,7 @@
         <v>-255416.50192778069</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>25</v>
       </c>
@@ -11801,7 +11805,7 @@
         <v>-1386842.4148154764</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>26</v>
       </c>
@@ -11882,7 +11886,7 @@
         <v>-410345.50791745115</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>27</v>
       </c>
@@ -11963,7 +11967,7 @@
         <v>-255416.50192778069</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>28</v>
       </c>
@@ -12044,7 +12048,7 @@
         <v>-1386842.4148154764</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>29</v>
       </c>
@@ -12125,7 +12129,7 @@
         <v>-410345.50791745115</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>30</v>
       </c>
@@ -12206,7 +12210,7 @@
         <v>-255416.50192778069</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>31</v>
       </c>
@@ -12287,7 +12291,7 @@
         <v>-1386842.4148154764</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>32</v>
       </c>
@@ -12368,7 +12372,7 @@
         <v>-410345.50791745115</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>33</v>
       </c>
@@ -12449,7 +12453,7 @@
         <v>-255416.50192778069</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>34</v>
       </c>
@@ -12530,7 +12534,7 @@
         <v>-1386842.4148154764</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>35</v>
       </c>
@@ -12611,7 +12615,7 @@
         <v>-410345.50791745115</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>36</v>
       </c>
@@ -12692,7 +12696,7 @@
         <v>-255416.50192778069</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>37</v>
       </c>
@@ -12773,7 +12777,7 @@
         <v>-1386842.4148154764</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>38</v>
       </c>
@@ -12854,7 +12858,7 @@
         <v>-410345.50791745115</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>39</v>
       </c>
@@ -12935,7 +12939,7 @@
         <v>-255416.50192778069</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>40</v>
       </c>
@@ -13016,7 +13020,7 @@
         <v>-1386842.4148154764</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>41</v>
       </c>
@@ -13097,7 +13101,7 @@
         <v>-410345.50791745115</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>42</v>
       </c>
@@ -13178,7 +13182,7 @@
         <v>-255416.50192778069</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>43</v>
       </c>
@@ -13259,7 +13263,7 @@
         <v>-1386842.4148154764</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>44</v>
       </c>
@@ -13340,7 +13344,7 @@
         <v>-410345.50791745115</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>45</v>
       </c>
@@ -13421,7 +13425,7 @@
         <v>-255416.50192778069</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>46</v>
       </c>
@@ -13502,7 +13506,7 @@
         <v>-1386842.4148154764</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>47</v>
       </c>
@@ -13583,7 +13587,7 @@
         <v>-410345.50791745115</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>48</v>
       </c>
@@ -13664,7 +13668,7 @@
         <v>-255416.50192778069</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>49</v>
       </c>
@@ -13745,7 +13749,7 @@
         <v>-1386842.4148154764</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>50</v>
       </c>
@@ -13826,7 +13830,7 @@
         <v>-410345.50791745115</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>51</v>
       </c>
@@ -13907,7 +13911,7 @@
         <v>-255416.50192778069</v>
       </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>52</v>
       </c>
@@ -13988,7 +13992,7 @@
         <v>-1386842.4148154764</v>
       </c>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>53</v>
       </c>
@@ -14069,7 +14073,7 @@
         <v>-410345.50791745115</v>
       </c>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>54</v>
       </c>
@@ -14150,7 +14154,7 @@
         <v>-255416.50192778069</v>
       </c>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>55</v>
       </c>
@@ -14231,7 +14235,7 @@
         <v>-1386842.4148154764</v>
       </c>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>56</v>
       </c>
@@ -14312,7 +14316,7 @@
         <v>-410345.50791745115</v>
       </c>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>57</v>
       </c>
@@ -14393,7 +14397,7 @@
         <v>-255416.50192778069</v>
       </c>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>58</v>
       </c>
@@ -14474,7 +14478,7 @@
         <v>-1386842.4148154764</v>
       </c>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>59</v>
       </c>
@@ -14555,7 +14559,7 @@
         <v>-410345.50791745115</v>
       </c>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>60</v>
       </c>
@@ -14636,7 +14640,7 @@
         <v>-255416.50192778069</v>
       </c>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>61</v>
       </c>
@@ -14717,7 +14721,7 @@
         <v>-1386842.4148154764</v>
       </c>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>62</v>
       </c>
@@ -14798,7 +14802,7 @@
         <v>-410345.50791745115</v>
       </c>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>63</v>
       </c>
@@ -14879,7 +14883,7 @@
         <v>-255416.50192778069</v>
       </c>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>64</v>
       </c>
@@ -14960,7 +14964,7 @@
         <v>-1386842.4148154764</v>
       </c>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>65</v>
       </c>
@@ -15041,7 +15045,7 @@
         <v>-410345.50791745115</v>
       </c>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>66</v>
       </c>
@@ -15122,7 +15126,7 @@
         <v>-255416.50192778069</v>
       </c>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
       <c r="Z47">
         <f>SUM(Z2:Z46)</f>
         <v>-30789066.369910646</v>
@@ -15139,9 +15143,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -15215,7 +15219,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>22</v>
       </c>
@@ -15292,7 +15296,7 @@
         <v>-386.23793865605359</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>23</v>
       </c>
@@ -15369,7 +15373,7 @@
         <v>-205.68269577730439</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>24</v>
       </c>
@@ -15446,7 +15450,7 @@
         <v>-218.58465335209479</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>25</v>
       </c>
@@ -15523,7 +15527,7 @@
         <v>-386.23793865605359</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>26</v>
       </c>
@@ -15600,7 +15604,7 @@
         <v>-205.68269577730439</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>27</v>
       </c>
@@ -15677,7 +15681,7 @@
         <v>-218.58465335209479</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>28</v>
       </c>
@@ -15754,7 +15758,7 @@
         <v>-386.23793865605359</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>29</v>
       </c>
@@ -15831,7 +15835,7 @@
         <v>-205.68269577730439</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>30</v>
       </c>
@@ -15908,7 +15912,7 @@
         <v>-218.58465335209479</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>31</v>
       </c>
@@ -15985,7 +15989,7 @@
         <v>-386.23793865605359</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>32</v>
       </c>
@@ -16062,7 +16066,7 @@
         <v>-205.68269577730439</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>33</v>
       </c>
@@ -16139,7 +16143,7 @@
         <v>-218.58465335209479</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>34</v>
       </c>
@@ -16216,7 +16220,7 @@
         <v>-386.23793865605359</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>35</v>
       </c>
@@ -16293,7 +16297,7 @@
         <v>-205.68269577730439</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>36</v>
       </c>
@@ -16370,7 +16374,7 @@
         <v>-218.58465335209479</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>37</v>
       </c>
@@ -16447,7 +16451,7 @@
         <v>-386.23793865605359</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>38</v>
       </c>
@@ -16524,7 +16528,7 @@
         <v>-205.68269577730439</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>39</v>
       </c>
@@ -16601,7 +16605,7 @@
         <v>-218.58465335209479</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>40</v>
       </c>
@@ -16678,7 +16682,7 @@
         <v>-386.23793865605359</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>41</v>
       </c>
@@ -16755,7 +16759,7 @@
         <v>-205.68269577730439</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>42</v>
       </c>
@@ -16832,7 +16836,7 @@
         <v>-218.58465335209479</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>43</v>
       </c>
@@ -16909,7 +16913,7 @@
         <v>-386.23793865605359</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>44</v>
       </c>
@@ -16986,7 +16990,7 @@
         <v>-205.68269577730439</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>45</v>
       </c>
@@ -17063,7 +17067,7 @@
         <v>-218.58465335209479</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>46</v>
       </c>
@@ -17140,7 +17144,7 @@
         <v>-386.23793865605359</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>47</v>
       </c>
@@ -17217,7 +17221,7 @@
         <v>-205.68269577730439</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>48</v>
       </c>
@@ -17294,7 +17298,7 @@
         <v>-218.58465335209479</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>49</v>
       </c>
@@ -17371,7 +17375,7 @@
         <v>-386.23793865605359</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>50</v>
       </c>
@@ -17448,7 +17452,7 @@
         <v>-205.68269577730439</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>51</v>
       </c>
@@ -17525,7 +17529,7 @@
         <v>-218.58465335209479</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>52</v>
       </c>
@@ -17602,7 +17606,7 @@
         <v>-386.23793865605359</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>53</v>
       </c>
@@ -17679,7 +17683,7 @@
         <v>-205.68269577730439</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>54</v>
       </c>
@@ -17756,7 +17760,7 @@
         <v>-218.58465335209479</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>55</v>
       </c>
@@ -17833,7 +17837,7 @@
         <v>-386.23793865605359</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>56</v>
       </c>
@@ -17910,7 +17914,7 @@
         <v>-205.68269577730439</v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>57</v>
       </c>
@@ -17987,7 +17991,7 @@
         <v>-218.58465335209479</v>
       </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>58</v>
       </c>
@@ -18064,7 +18068,7 @@
         <v>-386.23793865605359</v>
       </c>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>59</v>
       </c>
@@ -18141,7 +18145,7 @@
         <v>-205.68269577730439</v>
       </c>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>60</v>
       </c>
@@ -18218,7 +18222,7 @@
         <v>-218.58465335209479</v>
       </c>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>61</v>
       </c>
@@ -18295,7 +18299,7 @@
         <v>-386.23793865605359</v>
       </c>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>62</v>
       </c>
@@ -18372,7 +18376,7 @@
         <v>-205.68269577730439</v>
       </c>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>63</v>
       </c>
@@ -18449,7 +18453,7 @@
         <v>-218.58465335209479</v>
       </c>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>64</v>
       </c>
@@ -18526,7 +18530,7 @@
         <v>-386.23793865605359</v>
       </c>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>65</v>
       </c>
@@ -18603,7 +18607,7 @@
         <v>-205.68269577730439</v>
       </c>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>66</v>
       </c>
@@ -18687,13 +18691,18 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
-  <dimension ref="A1:Y46"/>
+  <dimension ref="A1:Z47"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="Z48" sqref="Z48"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="26" max="26" width="11" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -18767,7 +18776,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>22</v>
       </c>
@@ -18843,8 +18852,12 @@
       <c r="Y2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Z2">
+        <f>SUM(B2:Y2)*199</f>
+        <v>552900.40603295853</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>23</v>
       </c>
@@ -18920,8 +18933,12 @@
       <c r="Y3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Z3">
+        <f>SUM(B3:Y3)*106</f>
+        <v>284556.34792641667</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>24</v>
       </c>
@@ -18997,8 +19014,12 @@
       <c r="Y4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Z4">
+        <f>SUM(B4:Y4)*60</f>
+        <v>60994.396501230767</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>25</v>
       </c>
@@ -19074,8 +19095,12 @@
       <c r="Y5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Z5">
+        <f t="shared" ref="Z5" si="0">SUM(B5:Y5)*199</f>
+        <v>552900.40603295853</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>26</v>
       </c>
@@ -19151,8 +19176,12 @@
       <c r="Y6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Z6">
+        <f t="shared" ref="Z6" si="1">SUM(B6:Y6)*106</f>
+        <v>284556.34792641667</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>27</v>
       </c>
@@ -19228,8 +19257,12 @@
       <c r="Y7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Z7">
+        <f t="shared" ref="Z7" si="2">SUM(B7:Y7)*60</f>
+        <v>60994.396501230767</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>28</v>
       </c>
@@ -19305,8 +19338,12 @@
       <c r="Y8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Z8">
+        <f t="shared" ref="Z8" si="3">SUM(B8:Y8)*199</f>
+        <v>552900.40603295853</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>29</v>
       </c>
@@ -19382,8 +19419,12 @@
       <c r="Y9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Z9">
+        <f t="shared" ref="Z9" si="4">SUM(B9:Y9)*106</f>
+        <v>284556.34792641667</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>30</v>
       </c>
@@ -19459,8 +19500,12 @@
       <c r="Y10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Z10">
+        <f t="shared" ref="Z10" si="5">SUM(B10:Y10)*60</f>
+        <v>60994.396501230767</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>31</v>
       </c>
@@ -19536,8 +19581,12 @@
       <c r="Y11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Z11">
+        <f t="shared" ref="Z11" si="6">SUM(B11:Y11)*199</f>
+        <v>552900.40603295853</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>32</v>
       </c>
@@ -19613,8 +19662,12 @@
       <c r="Y12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Z12">
+        <f t="shared" ref="Z12" si="7">SUM(B12:Y12)*106</f>
+        <v>284556.34792641667</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>33</v>
       </c>
@@ -19690,8 +19743,12 @@
       <c r="Y13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Z13">
+        <f t="shared" ref="Z13" si="8">SUM(B13:Y13)*60</f>
+        <v>60994.396501230767</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>34</v>
       </c>
@@ -19767,8 +19824,12 @@
       <c r="Y14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Z14">
+        <f t="shared" ref="Z14" si="9">SUM(B14:Y14)*199</f>
+        <v>552900.40603295853</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>35</v>
       </c>
@@ -19844,8 +19905,12 @@
       <c r="Y15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Z15">
+        <f t="shared" ref="Z15" si="10">SUM(B15:Y15)*106</f>
+        <v>284556.34792641667</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>36</v>
       </c>
@@ -19921,8 +19986,12 @@
       <c r="Y16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Z16">
+        <f t="shared" ref="Z16" si="11">SUM(B16:Y16)*60</f>
+        <v>60994.396501230767</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>37</v>
       </c>
@@ -19998,8 +20067,12 @@
       <c r="Y17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Z17">
+        <f t="shared" ref="Z17" si="12">SUM(B17:Y17)*199</f>
+        <v>552900.40603295853</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>38</v>
       </c>
@@ -20075,8 +20148,12 @@
       <c r="Y18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Z18">
+        <f t="shared" ref="Z18" si="13">SUM(B18:Y18)*106</f>
+        <v>284556.34792641667</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>39</v>
       </c>
@@ -20152,8 +20229,12 @@
       <c r="Y19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Z19">
+        <f t="shared" ref="Z19" si="14">SUM(B19:Y19)*60</f>
+        <v>60994.396501230767</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>40</v>
       </c>
@@ -20229,8 +20310,12 @@
       <c r="Y20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Z20">
+        <f t="shared" ref="Z20" si="15">SUM(B20:Y20)*199</f>
+        <v>552900.40603295853</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>41</v>
       </c>
@@ -20306,8 +20391,12 @@
       <c r="Y21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Z21">
+        <f t="shared" ref="Z21" si="16">SUM(B21:Y21)*106</f>
+        <v>284556.34792641667</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>42</v>
       </c>
@@ -20383,8 +20472,12 @@
       <c r="Y22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Z22">
+        <f t="shared" ref="Z22" si="17">SUM(B22:Y22)*60</f>
+        <v>60994.396501230767</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>43</v>
       </c>
@@ -20460,8 +20553,12 @@
       <c r="Y23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Z23">
+        <f t="shared" ref="Z23" si="18">SUM(B23:Y23)*199</f>
+        <v>552900.40603295853</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>44</v>
       </c>
@@ -20537,8 +20634,12 @@
       <c r="Y24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Z24">
+        <f t="shared" ref="Z24" si="19">SUM(B24:Y24)*106</f>
+        <v>284556.34792641667</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>45</v>
       </c>
@@ -20614,8 +20715,12 @@
       <c r="Y25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Z25">
+        <f t="shared" ref="Z25" si="20">SUM(B25:Y25)*60</f>
+        <v>60994.396501230767</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>46</v>
       </c>
@@ -20691,8 +20796,12 @@
       <c r="Y26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Z26">
+        <f t="shared" ref="Z26" si="21">SUM(B26:Y26)*199</f>
+        <v>552900.40603295853</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>47</v>
       </c>
@@ -20768,8 +20877,12 @@
       <c r="Y27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Z27">
+        <f t="shared" ref="Z27" si="22">SUM(B27:Y27)*106</f>
+        <v>284556.34792641667</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>48</v>
       </c>
@@ -20845,8 +20958,12 @@
       <c r="Y28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Z28">
+        <f t="shared" ref="Z28" si="23">SUM(B28:Y28)*60</f>
+        <v>60994.396501230767</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>49</v>
       </c>
@@ -20922,8 +21039,12 @@
       <c r="Y29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Z29">
+        <f t="shared" ref="Z29" si="24">SUM(B29:Y29)*199</f>
+        <v>552900.40603295853</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>50</v>
       </c>
@@ -20999,8 +21120,12 @@
       <c r="Y30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Z30">
+        <f t="shared" ref="Z30" si="25">SUM(B30:Y30)*106</f>
+        <v>284556.34792641667</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>51</v>
       </c>
@@ -21076,8 +21201,12 @@
       <c r="Y31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Z31">
+        <f t="shared" ref="Z31" si="26">SUM(B31:Y31)*60</f>
+        <v>60994.396501230767</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>52</v>
       </c>
@@ -21153,8 +21282,12 @@
       <c r="Y32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Z32">
+        <f t="shared" ref="Z32" si="27">SUM(B32:Y32)*199</f>
+        <v>552900.40603295853</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>53</v>
       </c>
@@ -21230,8 +21363,12 @@
       <c r="Y33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Z33">
+        <f t="shared" ref="Z33" si="28">SUM(B33:Y33)*106</f>
+        <v>284556.34792641667</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>54</v>
       </c>
@@ -21307,8 +21444,12 @@
       <c r="Y34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Z34">
+        <f t="shared" ref="Z34" si="29">SUM(B34:Y34)*60</f>
+        <v>60994.396501230767</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>55</v>
       </c>
@@ -21384,8 +21525,12 @@
       <c r="Y35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Z35">
+        <f t="shared" ref="Z35" si="30">SUM(B35:Y35)*199</f>
+        <v>552900.40603295853</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>56</v>
       </c>
@@ -21461,8 +21606,12 @@
       <c r="Y36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Z36">
+        <f t="shared" ref="Z36" si="31">SUM(B36:Y36)*106</f>
+        <v>284556.34792641667</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>57</v>
       </c>
@@ -21538,8 +21687,12 @@
       <c r="Y37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Z37">
+        <f t="shared" ref="Z37" si="32">SUM(B37:Y37)*60</f>
+        <v>60994.396501230767</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>58</v>
       </c>
@@ -21615,8 +21768,12 @@
       <c r="Y38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Z38">
+        <f t="shared" ref="Z38" si="33">SUM(B38:Y38)*199</f>
+        <v>552900.40603295853</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>59</v>
       </c>
@@ -21692,8 +21849,12 @@
       <c r="Y39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Z39">
+        <f t="shared" ref="Z39" si="34">SUM(B39:Y39)*106</f>
+        <v>284556.34792641667</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>60</v>
       </c>
@@ -21769,8 +21930,12 @@
       <c r="Y40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Z40">
+        <f t="shared" ref="Z40" si="35">SUM(B40:Y40)*60</f>
+        <v>60994.396501230767</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>61</v>
       </c>
@@ -21846,8 +22011,12 @@
       <c r="Y41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Z41">
+        <f t="shared" ref="Z41" si="36">SUM(B41:Y41)*199</f>
+        <v>552900.40603295853</v>
+      </c>
+    </row>
+    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>62</v>
       </c>
@@ -21923,8 +22092,12 @@
       <c r="Y42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Z42">
+        <f t="shared" ref="Z42" si="37">SUM(B42:Y42)*106</f>
+        <v>284556.34792641667</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>63</v>
       </c>
@@ -22000,8 +22173,12 @@
       <c r="Y43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Z43">
+        <f t="shared" ref="Z43" si="38">SUM(B43:Y43)*60</f>
+        <v>60994.396501230767</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>64</v>
       </c>
@@ -22077,8 +22254,12 @@
       <c r="Y44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Z44">
+        <f t="shared" ref="Z44" si="39">SUM(B44:Y44)*199</f>
+        <v>552900.40603295853</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>65</v>
       </c>
@@ -22154,8 +22335,12 @@
       <c r="Y45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Z45">
+        <f t="shared" ref="Z45" si="40">SUM(B45:Y45)*106</f>
+        <v>284556.34792641667</v>
+      </c>
+    </row>
+    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>66</v>
       </c>
@@ -22230,6 +22415,16 @@
       </c>
       <c r="Y46">
         <v>0</v>
+      </c>
+      <c r="Z46">
+        <f t="shared" ref="Z46" si="41">SUM(B46:Y46)*60</f>
+        <v>60994.396501230767</v>
+      </c>
+    </row>
+    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Z47">
+        <f>SUM(Z2:Z46)</f>
+        <v>13476767.256909093</v>
       </c>
     </row>
   </sheetData>
@@ -22243,9 +22438,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -22319,7 +22514,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>22</v>
       </c>
@@ -22396,7 +22591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>23</v>
       </c>
@@ -22473,7 +22668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>24</v>
       </c>
@@ -22550,7 +22745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>25</v>
       </c>
@@ -22627,7 +22822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>26</v>
       </c>
@@ -22704,7 +22899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>27</v>
       </c>
@@ -22781,7 +22976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>28</v>
       </c>
@@ -22858,7 +23053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>29</v>
       </c>
@@ -22935,7 +23130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>30</v>
       </c>
@@ -23012,7 +23207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>31</v>
       </c>
@@ -23089,7 +23284,7 @@
         <v>58.485680185918682</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>32</v>
       </c>
@@ -23166,7 +23361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>33</v>
       </c>
@@ -23243,7 +23438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>34</v>
       </c>
@@ -23320,7 +23515,7 @@
         <v>31.55489703537063</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>35</v>
       </c>
@@ -23397,7 +23592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>36</v>
       </c>
@@ -23474,7 +23669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>37</v>
       </c>
@@ -23551,7 +23746,7 @@
         <v>20.965046885046039</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>38</v>
       </c>
@@ -23628,7 +23823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>39</v>
       </c>
@@ -23705,7 +23900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>40</v>
       </c>
@@ -23782,7 +23977,7 @@
         <v>20.965046885046039</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>41</v>
       </c>
@@ -23859,7 +24054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>42</v>
       </c>
@@ -23936,7 +24131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>43</v>
       </c>
@@ -24013,7 +24208,7 @@
         <v>20.965046885046039</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>44</v>
       </c>
@@ -24090,7 +24285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>45</v>
       </c>
@@ -24167,7 +24362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>46</v>
       </c>
@@ -24244,7 +24439,7 @@
         <v>58.485680185918682</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>47</v>
       </c>
@@ -24321,7 +24516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>48</v>
       </c>
@@ -24398,7 +24593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>49</v>
       </c>
@@ -24475,7 +24670,7 @@
         <v>20.965046885046039</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>50</v>
       </c>
@@ -24552,7 +24747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>51</v>
       </c>
@@ -24629,7 +24824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>52</v>
       </c>
@@ -24706,7 +24901,7 @@
         <v>4.3075685837918058</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>53</v>
       </c>
@@ -24783,7 +24978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>54</v>
       </c>
@@ -24860,7 +25055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>55</v>
       </c>
@@ -24937,7 +25132,7 @@
         <v>4.3075685837918058</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>56</v>
       </c>
@@ -25014,7 +25209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>57</v>
       </c>
@@ -25091,7 +25286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>58</v>
       </c>
@@ -25168,7 +25363,7 @@
         <v>4.3075685837918058</v>
       </c>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>59</v>
       </c>
@@ -25245,7 +25440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>60</v>
       </c>
@@ -25322,7 +25517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>61</v>
       </c>
@@ -25399,7 +25594,7 @@
         <v>65.037013885475062</v>
       </c>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>62</v>
       </c>
@@ -25476,7 +25671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>63</v>
       </c>
@@ -25553,7 +25748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>64</v>
       </c>
@@ -25630,7 +25825,7 @@
         <v>129.48843033689579</v>
       </c>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>65</v>
       </c>
@@ -25707,7 +25902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>66</v>
       </c>
@@ -25795,14 +25990,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -25810,7 +26005,7 @@
         <v>614457.25403777906</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -25818,7 +26013,7 @@
         <v>614457.25403777906</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -25826,7 +26021,7 @@
         <v>614457.25403777906</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -25834,7 +26029,7 @@
         <v>587485.84651333001</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -25842,7 +26037,7 @@
         <v>602330.70040343853</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -25850,7 +26045,7 @@
         <v>606756.19878125913</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -25858,7 +26053,7 @@
         <v>606756.19878125913</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -25866,7 +26061,7 @@
         <v>606756.19878125913</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -25874,7 +26069,7 @@
         <v>587485.84651333001</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -25882,7 +26077,7 @@
         <v>606756.19878125913</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -25890,7 +26085,7 @@
         <v>611994.61112595885</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -25898,7 +26093,7 @@
         <v>611994.61112595885</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -25906,7 +26101,7 @@
         <v>611994.61112595885</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -25914,7 +26109,7 @@
         <v>583183.58567283128</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -25933,9 +26128,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -25982,7 +26177,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -26032,7 +26227,7 @@
         <v>719720.22172026301</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -26082,7 +26277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -26132,7 +26327,7 @@
         <v>410792.60617855802</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
@@ -26182,7 +26377,7 @@
         <v>21584.67441488328</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
@@ -26243,14 +26438,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
@@ -26258,7 +26453,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
@@ -26279,12 +26474,12 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -26331,7 +26526,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
@@ -26381,7 +26576,7 @@
         <v>256.74950831915783</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
@@ -26431,7 +26626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -26481,7 +26676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
     </row>
   </sheetData>
@@ -26493,16 +26688,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:P7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P7" sqref="A6:P7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -26549,7 +26744,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
@@ -26599,7 +26794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
@@ -26649,7 +26844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -26699,76 +26894,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B6">
-        <f>800*B2</f>
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <f t="shared" ref="C6:P6" si="0">800*C2</f>
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <f t="shared" si="0"/>
-        <v>262201.80677610793</v>
-      </c>
-      <c r="F6">
-        <f t="shared" si="0"/>
-        <v>21544.62652043844</v>
-      </c>
-      <c r="G6">
-        <f t="shared" si="0"/>
-        <v>8471.8801202596715</v>
-      </c>
-      <c r="H6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <f t="shared" si="0"/>
-        <v>232185.30013540987</v>
-      </c>
-      <c r="K6">
-        <f t="shared" si="0"/>
-        <v>51561.13316113656</v>
-      </c>
-      <c r="L6">
-        <f t="shared" si="0"/>
-        <v>21797.862761263055</v>
-      </c>
-      <c r="M6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <f t="shared" si="0"/>
-        <v>183601.7438940632</v>
-      </c>
-      <c r="P6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="B7" s="3">
-        <f>NPV(0.1,C6:P6)</f>
-        <v>408741.75391013426</v>
-      </c>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B7" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -26781,9 +26911,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -26830,7 +26960,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
@@ -26880,7 +27010,7 @@
         <v>64.451416451420698</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
@@ -26930,7 +27060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -26991,9 +27121,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -27067,7 +27197,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>22</v>
       </c>
@@ -27144,7 +27274,7 @@
         <v>386.23793865605359</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>23</v>
       </c>
@@ -27221,7 +27351,7 @@
         <v>205.68269577730439</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>24</v>
       </c>
@@ -27298,7 +27428,7 @@
         <v>218.58465335209479</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>25</v>
       </c>
@@ -27375,7 +27505,7 @@
         <v>386.23793865605359</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>26</v>
       </c>
@@ -27452,7 +27582,7 @@
         <v>205.68269577730439</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>27</v>
       </c>
@@ -27529,7 +27659,7 @@
         <v>218.58465335209479</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>28</v>
       </c>
@@ -27606,7 +27736,7 @@
         <v>386.23793865605359</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>29</v>
       </c>
@@ -27683,7 +27813,7 @@
         <v>205.68269577730439</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>30</v>
       </c>
@@ -27760,7 +27890,7 @@
         <v>218.58465335209479</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>31</v>
       </c>
@@ -27837,7 +27967,7 @@
         <v>327.7522584701349</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>32</v>
       </c>
@@ -27914,7 +28044,7 @@
         <v>205.68269577730439</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>33</v>
       </c>
@@ -27991,7 +28121,7 @@
         <v>218.58465335209479</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>34</v>
       </c>
@@ -28068,7 +28198,7 @@
         <v>354.68304162068301</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>35</v>
       </c>
@@ -28145,7 +28275,7 @@
         <v>205.68269577730439</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>36</v>
       </c>
@@ -28222,7 +28352,7 @@
         <v>218.58465335209479</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>37</v>
       </c>
@@ -28299,7 +28429,7 @@
         <v>365.27289177100761</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>38</v>
       </c>
@@ -28376,7 +28506,7 @@
         <v>205.68269577730439</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>39</v>
       </c>
@@ -28453,7 +28583,7 @@
         <v>218.58465335209479</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>40</v>
       </c>
@@ -28530,7 +28660,7 @@
         <v>365.27289177100761</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>41</v>
       </c>
@@ -28607,7 +28737,7 @@
         <v>205.68269577730439</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>42</v>
       </c>
@@ -28684,7 +28814,7 @@
         <v>218.58465335209479</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>43</v>
       </c>
@@ -28761,7 +28891,7 @@
         <v>365.27289177100761</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>44</v>
       </c>
@@ -28838,7 +28968,7 @@
         <v>205.68269577730439</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>45</v>
       </c>
@@ -28915,7 +29045,7 @@
         <v>218.58465335209479</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>46</v>
       </c>
@@ -28992,7 +29122,7 @@
         <v>327.7522584701349</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>47</v>
       </c>
@@ -29069,7 +29199,7 @@
         <v>205.68269577730439</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>48</v>
       </c>
@@ -29146,7 +29276,7 @@
         <v>218.58465335209479</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>49</v>
       </c>
@@ -29223,7 +29353,7 @@
         <v>365.27289177100761</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>50</v>
       </c>
@@ -29300,7 +29430,7 @@
         <v>205.68269577730439</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>51</v>
       </c>
@@ -29377,7 +29507,7 @@
         <v>218.58465335209479</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>52</v>
       </c>
@@ -29454,7 +29584,7 @@
         <v>381.93037007226178</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>53</v>
       </c>
@@ -29531,7 +29661,7 @@
         <v>205.68269577730439</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>54</v>
       </c>
@@ -29608,7 +29738,7 @@
         <v>218.58465335209479</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>55</v>
       </c>
@@ -29685,7 +29815,7 @@
         <v>381.93037007226178</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>56</v>
       </c>
@@ -29762,7 +29892,7 @@
         <v>205.68269577730439</v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>57</v>
       </c>
@@ -29839,7 +29969,7 @@
         <v>218.58465335209479</v>
       </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>58</v>
       </c>
@@ -29916,7 +30046,7 @@
         <v>381.93037007226178</v>
       </c>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>59</v>
       </c>
@@ -29993,7 +30123,7 @@
         <v>205.68269577730439</v>
       </c>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>60</v>
       </c>
@@ -30070,7 +30200,7 @@
         <v>218.58465335209479</v>
       </c>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>61</v>
       </c>
@@ -30147,7 +30277,7 @@
         <v>321.20092477057852</v>
       </c>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>62</v>
       </c>
@@ -30224,7 +30354,7 @@
         <v>205.68269577730439</v>
       </c>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>63</v>
       </c>
@@ -30301,7 +30431,7 @@
         <v>218.58465335209479</v>
       </c>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>64</v>
       </c>
@@ -30378,7 +30508,7 @@
         <v>256.74950831915783</v>
       </c>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>65</v>
       </c>
@@ -30455,7 +30585,7 @@
         <v>205.68269577730439</v>
       </c>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>66</v>
       </c>
@@ -30543,9 +30673,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -30619,7 +30749,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>22</v>
       </c>
@@ -30696,7 +30826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>23</v>
       </c>
@@ -30773,7 +30903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>24</v>
       </c>
@@ -30850,7 +30980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>25</v>
       </c>
@@ -30927,7 +31057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>26</v>
       </c>
@@ -31004,7 +31134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>27</v>
       </c>
@@ -31081,7 +31211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>28</v>
       </c>
@@ -31158,7 +31288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>29</v>
       </c>
@@ -31235,7 +31365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>30</v>
       </c>
@@ -31312,7 +31442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>31</v>
       </c>
@@ -31389,7 +31519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>32</v>
       </c>
@@ -31466,7 +31596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>33</v>
       </c>
@@ -31543,7 +31673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>34</v>
       </c>
@@ -31620,7 +31750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>35</v>
       </c>
@@ -31697,7 +31827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>36</v>
       </c>
@@ -31774,7 +31904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>37</v>
       </c>
@@ -31851,7 +31981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>38</v>
       </c>
@@ -31928,7 +32058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>39</v>
       </c>
@@ -32005,7 +32135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>40</v>
       </c>
@@ -32082,7 +32212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>41</v>
       </c>
@@ -32159,7 +32289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>42</v>
       </c>
@@ -32236,7 +32366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>43</v>
       </c>
@@ -32313,7 +32443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>44</v>
       </c>
@@ -32390,7 +32520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>45</v>
       </c>
@@ -32467,7 +32597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>46</v>
       </c>
@@ -32544,7 +32674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>47</v>
       </c>
@@ -32621,7 +32751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>48</v>
       </c>
@@ -32698,7 +32828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>49</v>
       </c>
@@ -32775,7 +32905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>50</v>
       </c>
@@ -32852,7 +32982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>51</v>
       </c>
@@ -32929,7 +33059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>52</v>
       </c>
@@ -33006,7 +33136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>53</v>
       </c>
@@ -33083,7 +33213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>54</v>
       </c>
@@ -33160,7 +33290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>55</v>
       </c>
@@ -33237,7 +33367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>56</v>
       </c>
@@ -33314,7 +33444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>57</v>
       </c>
@@ -33391,7 +33521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>58</v>
       </c>
@@ -33468,7 +33598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>59</v>
       </c>
@@ -33545,7 +33675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>60</v>
       </c>
@@ -33622,7 +33752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>61</v>
       </c>
@@ -33699,7 +33829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>62</v>
       </c>
@@ -33776,7 +33906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>63</v>
       </c>
@@ -33853,7 +33983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>64</v>
       </c>
@@ -33930,7 +34060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>65</v>
       </c>
@@ -34007,7 +34137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>66</v>
       </c>
@@ -34095,9 +34225,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -34171,7 +34301,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>22</v>
       </c>
@@ -34248,7 +34378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>23</v>
       </c>
@@ -34325,7 +34455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>24</v>
       </c>
@@ -34402,7 +34532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>25</v>
       </c>
@@ -34479,7 +34609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>26</v>
       </c>
@@ -34556,7 +34686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>27</v>
       </c>
@@ -34633,7 +34763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>28</v>
       </c>
@@ -34710,7 +34840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>29</v>
       </c>
@@ -34787,7 +34917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>30</v>
       </c>
@@ -34864,7 +34994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>31</v>
       </c>
@@ -34941,7 +35071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>32</v>
       </c>
@@ -35018,7 +35148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>33</v>
       </c>
@@ -35095,7 +35225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>34</v>
       </c>
@@ -35172,7 +35302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>35</v>
       </c>
@@ -35249,7 +35379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>36</v>
       </c>
@@ -35326,7 +35456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>37</v>
       </c>
@@ -35403,7 +35533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>38</v>
       </c>
@@ -35480,7 +35610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>39</v>
       </c>
@@ -35557,7 +35687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>40</v>
       </c>
@@ -35634,7 +35764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>41</v>
       </c>
@@ -35711,7 +35841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>42</v>
       </c>
@@ -35788,7 +35918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>43</v>
       </c>
@@ -35865,7 +35995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>44</v>
       </c>
@@ -35942,7 +36072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>45</v>
       </c>
@@ -36019,7 +36149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>46</v>
       </c>
@@ -36096,7 +36226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>47</v>
       </c>
@@ -36173,7 +36303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>48</v>
       </c>
@@ -36250,7 +36380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>49</v>
       </c>
@@ -36327,7 +36457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>50</v>
       </c>
@@ -36404,7 +36534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>51</v>
       </c>
@@ -36481,7 +36611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>52</v>
       </c>
@@ -36558,7 +36688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>53</v>
       </c>
@@ -36635,7 +36765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>54</v>
       </c>
@@ -36712,7 +36842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>55</v>
       </c>
@@ -36789,7 +36919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>56</v>
       </c>
@@ -36866,7 +36996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>57</v>
       </c>
@@ -36943,7 +37073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>58</v>
       </c>
@@ -37020,7 +37150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>59</v>
       </c>
@@ -37097,7 +37227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>60</v>
       </c>
@@ -37174,7 +37304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>61</v>
       </c>
@@ -37251,7 +37381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>62</v>
       </c>
@@ -37328,7 +37458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>63</v>
       </c>
@@ -37405,7 +37535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>64</v>
       </c>
@@ -37482,7 +37612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>65</v>
       </c>
@@ -37559,7 +37689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>66</v>
       </c>
